--- a/campos_info/tabla_con_esperanza.xlsx
+++ b/campos_info/tabla_con_esperanza.xlsx
@@ -351,11 +351,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="34">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -468,6 +470,7 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -483,6 +486,7 @@
     <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2357,7 +2361,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4685,8 +4689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D27"/>
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4767,13 +4771,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F3" s="44">
-        <v>0.191425742149227</v>
+        <v>0.20118506014968601</v>
       </c>
       <c r="G3" s="9">
-        <v>0.22132259729689099</v>
+        <v>0.229056651839598</v>
       </c>
       <c r="H3" s="11">
-        <v>4.5323277172927999E-3</v>
+        <v>4.1567645827056696E-3</v>
       </c>
       <c r="I3" s="8">
         <v>4.9623969959003101E-3</v>
@@ -4808,13 +4812,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F4" s="12">
-        <v>3.1864441284952601E-3</v>
+        <v>9.1849076414204905E-3</v>
       </c>
       <c r="G4" s="30">
-        <v>2.1230151387165101E-35</v>
+        <v>4.75176052439053E-36</v>
       </c>
       <c r="H4" s="43">
-        <v>9.6658320005019203E-6</v>
+        <v>8.1057053621502902E-4</v>
       </c>
       <c r="I4" s="13">
         <v>4.5704008775529301E-3</v>
@@ -4849,13 +4853,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="45">
-        <v>5.6881103896658E-2</v>
+        <v>5.4943383998546799E-2</v>
       </c>
       <c r="G5" s="30">
-        <v>1.02570625566899E-62</v>
+        <v>1.58448487566612E-49</v>
       </c>
       <c r="H5" s="47">
-        <v>1.34457877887963E-2</v>
+        <v>1.02851192376179E-2</v>
       </c>
       <c r="I5" s="13">
         <v>3.2979050641493801E-3</v>
@@ -4890,13 +4894,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F6" s="45">
-        <v>0.12446021083607101</v>
+        <v>6.5484365921898102E-2</v>
       </c>
       <c r="G6" s="13">
-        <v>1.0015326827223501E-3</v>
+        <v>2.21636838131594E-3</v>
       </c>
       <c r="H6" s="47">
-        <v>3.2524756053166702E-2</v>
+        <v>4.2603566684719603E-2</v>
       </c>
       <c r="I6" s="13">
         <v>5.5457066719589998E-3</v>
@@ -4930,14 +4934,14 @@
       <c r="E7" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F7" s="17">
-        <v>6.4750839419862203E-3</v>
+      <c r="F7" s="46">
+        <v>1.9278843955668801E-2</v>
       </c>
       <c r="G7" s="27">
-        <v>5.8774437600791297E-54</v>
+        <v>4.6993700006902596E-56</v>
       </c>
       <c r="H7" s="21">
-        <v>9.2639050357407797E-4</v>
+        <v>3.40417734956988E-3</v>
       </c>
       <c r="I7" s="18">
         <v>4.2958655645367197E-3</v>
@@ -4972,13 +4976,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F8" s="44">
-        <v>0.35176689382119303</v>
+        <v>0.36818120459408799</v>
       </c>
       <c r="G8" s="9">
-        <v>0.41656358178877401</v>
+        <v>0.408767362204289</v>
       </c>
       <c r="H8" s="11">
-        <v>3.4424386709197702E-3</v>
+        <v>3.0420082989136401E-3</v>
       </c>
       <c r="I8" s="8">
         <v>5.26178039588494E-3</v>
@@ -5013,13 +5017,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F9" s="45">
-        <v>0.169313145611967</v>
+        <v>0.17558945833441</v>
       </c>
       <c r="G9" s="30">
-        <v>5.6323714712061396E-21</v>
+        <v>1.24428907823092E-19</v>
       </c>
       <c r="H9" s="47">
-        <v>0.16423373394037699</v>
+        <v>0.16961465290496</v>
       </c>
       <c r="I9" s="13">
         <v>5.1030151523069099E-3</v>
@@ -5054,13 +5058,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F10" s="12">
-        <v>2.5317560878280899E-3</v>
+        <v>1.36990767246928E-3</v>
       </c>
       <c r="G10" s="30">
-        <v>1.0366351179429E-11</v>
+        <v>6.2644191382032E-13</v>
       </c>
       <c r="H10" s="47">
-        <v>8.7878481594260996E-2</v>
+        <v>8.3822109698126299E-2</v>
       </c>
       <c r="I10" s="13">
         <v>4.2654258758243399E-3</v>
@@ -5095,13 +5099,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F11" s="45">
-        <v>9.8380788811360906E-2</v>
+        <v>9.7189037910830403E-2</v>
       </c>
       <c r="G11" s="13">
-        <v>5.1432628067923404E-3</v>
+        <v>2.4829741971030398E-3</v>
       </c>
       <c r="H11" s="47">
-        <v>0.17605084545881899</v>
+        <v>0.166767922493747</v>
       </c>
       <c r="I11" s="13">
         <v>5.8669443214161999E-3</v>
@@ -5136,13 +5140,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F12" s="46">
-        <v>1.46885490694621E-2</v>
+        <v>1.54463666137786E-2</v>
       </c>
       <c r="G12" s="27">
-        <v>1.20952448250315E-12</v>
+        <v>5.3333669244932098E-21</v>
       </c>
       <c r="H12" s="48">
-        <v>7.7181035366815295E-2</v>
+        <v>8.4110718905155493E-2</v>
       </c>
       <c r="I12" s="18">
         <v>5.1888851357963202E-3</v>
@@ -5177,13 +5181,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="44">
-        <v>0.36367970362044</v>
+        <v>0.373801295119983</v>
       </c>
       <c r="G13" s="9">
-        <v>0.42884222237103597</v>
+        <v>0.42155346834382101</v>
       </c>
       <c r="H13" s="11">
-        <v>2.5345426020451701E-3</v>
+        <v>3.1114563207704999E-3</v>
       </c>
       <c r="I13" s="8">
         <v>6.3532957466387397E-3</v>
@@ -5217,14 +5221,14 @@
       <c r="E14" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="12">
-        <v>8.6377511621061592E-3</v>
+      <c r="F14" s="45">
+        <v>1.3611077002320801E-2</v>
       </c>
       <c r="G14" s="30">
-        <v>2.2542901174008001E-5</v>
+        <v>1.1733058455491201E-4</v>
       </c>
       <c r="H14" s="47">
-        <v>0.19419600491532699</v>
+        <v>0.17041135499410301</v>
       </c>
       <c r="I14" s="13">
         <v>5.8981609231901202E-3</v>
@@ -5259,13 +5263,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="12">
-        <v>4.0022050971179699E-3</v>
+        <v>5.2782034869051503E-3</v>
       </c>
       <c r="G15" s="13">
-        <v>7.05323749391089E-3</v>
-      </c>
-      <c r="H15" s="47">
-        <v>2.2787798763093899E-2</v>
+        <v>7.7030890569599096E-3</v>
+      </c>
+      <c r="H15">
+        <v>6.6279155852240201E-3</v>
       </c>
       <c r="I15" s="13">
         <v>5.41533929310973E-3</v>
@@ -5300,13 +5304,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="45">
-        <v>0.28447931696218398</v>
+        <v>0.270632889901262</v>
       </c>
       <c r="G16" s="14">
-        <v>0.27600100267061101</v>
+        <v>0.237673896356804</v>
       </c>
       <c r="H16" s="47">
-        <v>3.3871564840771501E-2</v>
+        <v>3.5723419730740003E-2</v>
       </c>
       <c r="I16" s="13">
         <v>6.9467307009414602E-3</v>
@@ -5341,13 +5345,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="46">
-        <v>2.0894976241678201E-2</v>
+        <v>2.8852422392290002E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>2.5881242437977601E-2</v>
+        <v>4.2402284675444803E-2</v>
       </c>
       <c r="H17" s="48">
-        <v>3.1112477886993301E-2</v>
+        <v>4.81937986009838E-2</v>
       </c>
       <c r="I17" s="18">
         <v>6.0016759369237302E-3</v>
@@ -5526,7 +5530,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5607,13 +5611,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F3" s="9">
-        <v>1.0839269662695101E-2</v>
+        <v>1.0727494076281799E-2</v>
       </c>
       <c r="G3" s="29">
-        <v>1.6059510908557101E-26</v>
+        <v>9.2962717521145806E-23</v>
       </c>
       <c r="H3" s="9">
-        <v>7.8926738033373897E-2</v>
+        <v>8.3311408787881694E-2</v>
       </c>
       <c r="I3" s="8">
         <v>1.1832250439770299E-3</v>
@@ -5648,13 +5652,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F4" s="30">
-        <v>8.90974516938287E-7</v>
+        <v>1.1704787782532399E-6</v>
       </c>
       <c r="G4" s="30">
-        <v>3.7187433551608202E-42</v>
+        <v>3.7637542995046702E-37</v>
       </c>
       <c r="H4" s="30">
-        <v>2.8821748433177602E-6</v>
+        <v>1.9289364117030902E-6</v>
       </c>
       <c r="I4" s="13">
         <v>8.5209109951312997E-4</v>
@@ -5689,13 +5693,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="13">
-        <v>5.55891181268335E-3</v>
+        <v>2.99882085671561E-3</v>
       </c>
       <c r="G5" s="30">
-        <v>3.4437358502401101E-34</v>
+        <v>1.29420751479801E-35</v>
       </c>
       <c r="H5" s="13">
-        <v>6.5483007620913899E-3</v>
+        <v>2.9833017881287401E-3</v>
       </c>
       <c r="I5" s="13">
         <v>1.09342348372441E-3</v>
@@ -5730,13 +5734,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F6" s="13">
-        <v>3.1450585254736898E-3</v>
+        <v>3.7830461973605099E-3</v>
       </c>
       <c r="G6" s="30">
-        <v>2.5677509771466099E-51</v>
+        <v>1.00580836388598E-41</v>
       </c>
       <c r="H6" s="14">
-        <v>1.36081755901321E-2</v>
+        <v>1.32534874491029E-2</v>
       </c>
       <c r="I6" s="13">
         <v>1.27440418338231E-3</v>
@@ -5771,13 +5775,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F7" s="18">
-        <v>1.3695350349692201E-4</v>
+        <v>4.09322476787052E-4</v>
       </c>
       <c r="G7" s="27">
-        <v>1.9985761754539799E-41</v>
+        <v>1.8157756661650399E-44</v>
       </c>
       <c r="H7" s="27">
-        <v>9.0850421620484093E-6</v>
+        <v>3.2871316697668501E-5</v>
       </c>
       <c r="I7" s="18">
         <v>1.1284231034304499E-3</v>
@@ -5812,13 +5816,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F8" s="9">
-        <v>2.5651459681389099E-2</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1.36579710272917E-2</v>
+        <v>2.37928581113762E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.57745365010141E-2</v>
       </c>
       <c r="H8" s="8">
-        <v>8.0583399647612807E-3</v>
+        <v>8.4681072645472408E-3</v>
       </c>
       <c r="I8" s="8">
         <v>2.2851189552310302E-3</v>
@@ -5853,13 +5857,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F9" s="13">
-        <v>2.9674860750768798E-4</v>
+        <v>1.4204205455771199E-4</v>
       </c>
       <c r="G9" s="30">
-        <v>1.0916800972276901E-6</v>
+        <v>1.24724088423557E-6</v>
       </c>
       <c r="H9" s="30">
-        <v>9.9023387148568595E-7</v>
+        <v>5.1920956385487404E-6</v>
       </c>
       <c r="I9" s="13">
         <v>2.1591648710301801E-3</v>
@@ -5894,13 +5898,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F10" s="13">
-        <v>5.3946327147992904E-4</v>
+        <v>2.18688001340937E-3</v>
       </c>
       <c r="G10" s="13">
-        <v>1.09208715214893E-3</v>
-      </c>
-      <c r="H10" s="13">
-        <v>4.8288039675647501E-3</v>
+        <v>3.7458863416390902E-3</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1.6575881457024402E-2</v>
       </c>
       <c r="I10" s="13">
         <v>2.31147806285344E-3</v>
@@ -5935,13 +5939,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F11" s="13">
-        <v>6.86011913199193E-3</v>
-      </c>
-      <c r="G11" s="14">
-        <v>1.2558877132444199E-2</v>
+        <v>7.2413003499580096E-3</v>
+      </c>
+      <c r="G11">
+        <v>9.9924275948753607E-3</v>
       </c>
       <c r="H11" s="14">
-        <v>2.30824020258046E-2</v>
+        <v>2.22630272287676E-2</v>
       </c>
       <c r="I11" s="13">
         <v>2.3270512430783102E-3</v>
@@ -5976,13 +5980,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="F12" s="27">
-        <v>3.1756925912861302E-7</v>
+        <v>1.27212925769151E-7</v>
       </c>
       <c r="G12" s="27">
-        <v>1.0392382736267401E-5</v>
+        <v>9.5638220717863201E-6</v>
       </c>
       <c r="H12" s="18">
-        <v>1.53035466176886E-3</v>
+        <v>1.3993275335772201E-3</v>
       </c>
       <c r="I12" s="18">
         <v>2.3620330144285698E-3</v>
@@ -6017,13 +6021,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="9">
-        <v>3.6423800422151799E-2</v>
+        <v>3.3624680430426802E-2</v>
       </c>
       <c r="G13" s="29">
-        <v>1.50259446100382E-9</v>
+        <v>7.2371036056468399E-9</v>
       </c>
       <c r="H13" s="29">
-        <v>5.8794170327162605E-10</v>
+        <v>2.5541739665497301E-11</v>
       </c>
       <c r="I13" s="8">
         <v>4.05871867152581E-3</v>
@@ -6058,13 +6062,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="13">
-        <v>3.46493243752622E-4</v>
+        <v>1.2764778738778399E-3</v>
       </c>
       <c r="G14" s="30">
-        <v>2.2321918110707499E-15</v>
+        <v>1.36906773877037E-17</v>
       </c>
       <c r="H14" s="30">
-        <v>9.0066477759876005E-19</v>
+        <v>1.7474987833020399E-15</v>
       </c>
       <c r="I14" s="13">
         <v>3.9562293272669804E-3</v>
@@ -6099,13 +6103,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="14">
-        <v>2.1556165047645199E-2</v>
+        <v>3.9354876405535297E-2</v>
       </c>
       <c r="G15" s="30">
-        <v>2.8168194746980598E-8</v>
+        <v>8.6700501042414905E-10</v>
       </c>
       <c r="H15" s="30">
-        <v>4.75216527802397E-9</v>
+        <v>1.4920537108581999E-9</v>
       </c>
       <c r="I15" s="13">
         <v>4.0512457294290703E-3</v>
@@ -6140,13 +6144,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="14">
-        <v>9.1703030003031302E-2</v>
+        <v>7.2159776740290504E-2</v>
       </c>
       <c r="G16" s="30">
-        <v>3.6111912530535399E-6</v>
+        <v>5.9548549812747102E-7</v>
       </c>
       <c r="H16" s="30">
-        <v>1.60699736333311E-6</v>
+        <v>2.0733455004629599E-7</v>
       </c>
       <c r="I16" s="13">
         <v>4.0961040971454104E-3</v>
@@ -6181,13 +6185,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="19">
-        <v>4.6113520166922703E-2</v>
+        <v>4.1261255026257201E-2</v>
       </c>
       <c r="G17" s="27">
-        <v>8.3153243101554696E-8</v>
+        <v>1.8215492460499301E-8</v>
       </c>
       <c r="H17" s="27">
-        <v>2.0680892791489599E-7</v>
+        <v>5.5934813026315597E-9</v>
       </c>
       <c r="I17" s="18">
         <v>4.0627035129178098E-3</v>
